--- a/environment/sensitivities/Pathways to Net Zero - Exact 1-Year Shifting No Double-Deployment - Carbon tax for uncaptured carbon.xlsx
+++ b/environment/sensitivities/Pathways to Net Zero - Exact 1-Year Shifting No Double-Deployment - Carbon tax for uncaptured carbon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Documents\Work\Research\SAPIENS@SPA-QMUL\TuringProject\RangL-NetZeroTech@MSTeams\General\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{926D2F3C-B8F8-4369-93C5-EB48F2AC94C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF0ED032-9EF4-439C-8E12-26C830312530}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34560" windowHeight="15540" xr2:uid="{34FF58F0-CD5E-4781-9275-189B4FE32E77}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34560" windowHeight="15540" xr2:uid="{01CCD4C2-480B-4302-80B8-D4CA4CC67DF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -455,15 +455,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2493855-78F6-45E6-94DF-9EC774477C69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101C9C92-E855-4C3D-8A89-A24EB6A2BBC7}">
   <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.21875" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -575,94 +576,94 @@
         <v>2</v>
       </c>
       <c r="D2" s="6">
-        <v>13393.374346226414</v>
+        <v>13338.372247000423</v>
       </c>
       <c r="E2" s="6">
-        <v>13376.789288937749</v>
+        <v>13283.944155104331</v>
       </c>
       <c r="F2" s="6">
-        <v>13402.901015121481</v>
+        <v>13238.734373095178</v>
       </c>
       <c r="G2" s="6">
-        <v>13307.259462006028</v>
+        <v>13210.951907617329</v>
       </c>
       <c r="H2" s="6">
-        <v>13154.990479188298</v>
+        <v>12968.092820979931</v>
       </c>
       <c r="I2" s="6">
-        <v>12907.340863754947</v>
+        <v>12840.463832470257</v>
       </c>
       <c r="J2" s="6">
-        <v>12778.307092668336</v>
+        <v>12685.605914831272</v>
       </c>
       <c r="K2" s="6">
-        <v>12621.599523718774</v>
+        <v>12510.299469997506</v>
       </c>
       <c r="L2" s="6">
-        <v>12444.120145264675</v>
+        <v>12389.028237889952</v>
       </c>
       <c r="M2" s="6">
-        <v>12320.878735266693</v>
+        <v>12209.541411352271</v>
       </c>
       <c r="N2" s="6">
-        <v>12138.950085413453</v>
+        <v>12096.415385677963</v>
       </c>
       <c r="O2" s="6">
-        <v>11979.978731142544</v>
+        <v>11976.947297568846</v>
       </c>
       <c r="P2" s="6">
-        <v>11838.783358482686</v>
+        <v>11835.492085113468</v>
       </c>
       <c r="Q2" s="6">
-        <v>11672.903913652384</v>
+        <v>11669.342760262096</v>
       </c>
       <c r="R2" s="6">
-        <v>11479.315731932013</v>
+        <v>11475.477260362937</v>
       </c>
       <c r="S2" s="6">
-        <v>11254.632573644481</v>
+        <v>11250.512872213571</v>
       </c>
       <c r="T2" s="6">
-        <v>10990.970882354224</v>
+        <v>10986.572324960682</v>
       </c>
       <c r="U2" s="6">
-        <v>10686.9943309559</v>
+        <v>10682.324471817494</v>
       </c>
       <c r="V2" s="6">
-        <v>10338.266989466587</v>
+        <v>10333.341026754411</v>
       </c>
       <c r="W2" s="6">
-        <v>9939.755352775328</v>
+        <v>9934.5980465126759</v>
       </c>
       <c r="X2" s="6">
-        <v>9485.759144414089</v>
+        <v>9480.4070969217155</v>
       </c>
       <c r="Y2" s="6">
-        <v>8969.8360241154987</v>
+        <v>8964.3403799899788</v>
       </c>
       <c r="Z2" s="6">
-        <v>8384.7204543973367</v>
+        <v>8379.1500837048352</v>
       </c>
       <c r="AA2" s="6">
-        <v>7722.2374026797706</v>
+        <v>7716.6826377113293</v>
       </c>
       <c r="AB2" s="6">
-        <v>6973.2121820041284</v>
+        <v>6967.7891841005403</v>
       </c>
       <c r="AC2" s="6">
-        <v>6127.3786523821655</v>
+        <v>6122.2344902478308</v>
       </c>
       <c r="AD2" s="6">
-        <v>5173.289339337839</v>
+        <v>5168.6078627588404</v>
       </c>
       <c r="AE2" s="6">
-        <v>4098.232950499164</v>
+        <v>4094.2415416793278</v>
       </c>
       <c r="AF2" s="6">
-        <v>2888.1675315189063</v>
+        <v>2885.1448076530419</v>
       </c>
       <c r="AG2" s="6">
-        <v>1527.6814476451573</v>
+        <v>1525.9659688175734</v>
       </c>
       <c r="AH2" s="6">
         <v>0</v>
@@ -679,94 +680,94 @@
         <v>2</v>
       </c>
       <c r="D3" s="6">
-        <v>13393.413622960526</v>
+        <v>13338.542825044666</v>
       </c>
       <c r="E3" s="6">
-        <v>13377.064847020507</v>
+        <v>13284.219713187093</v>
       </c>
       <c r="F3" s="6">
-        <v>13403.371338802011</v>
+        <v>13239.204696775707</v>
       </c>
       <c r="G3" s="6">
-        <v>13308.03920053691</v>
+        <v>13211.731646148211</v>
       </c>
       <c r="H3" s="6">
-        <v>13156.207659198559</v>
+        <v>12969.309963252561</v>
       </c>
       <c r="I3" s="6">
-        <v>12909.148394801286</v>
+        <v>12842.271250366895</v>
       </c>
       <c r="J3" s="6">
-        <v>12780.877440601078</v>
+        <v>12688.176019090655</v>
       </c>
       <c r="K3" s="6">
-        <v>12625.123780918444</v>
+        <v>12513.823277396727</v>
       </c>
       <c r="L3" s="6">
-        <v>12448.807100878534</v>
+        <v>12393.714438426317</v>
       </c>
       <c r="M3" s="6">
-        <v>12326.953945445282</v>
+        <v>12215.615435425159</v>
       </c>
       <c r="N3" s="6">
-        <v>12146.654943547152</v>
+        <v>12063.435671030664</v>
       </c>
       <c r="O3" s="6">
-        <v>11904.559351959215</v>
+        <v>11901.547002629593</v>
       </c>
       <c r="P3" s="6">
-        <v>11717.558657945783</v>
+        <v>11714.30108598122</v>
       </c>
       <c r="Q3" s="6">
-        <v>11502.575393471103</v>
+        <v>11499.066203670303</v>
       </c>
       <c r="R3" s="6">
-        <v>11256.755103239781</v>
+        <v>11252.991051842218</v>
       </c>
       <c r="S3" s="6">
-        <v>10977.006867634645</v>
+        <v>10972.988789691737</v>
       </c>
       <c r="T3" s="6">
-        <v>10655.904828773022</v>
+        <v>10651.64036392536</v>
       </c>
       <c r="U3" s="6">
-        <v>10292.779468519733</v>
+        <v>10288.281868093256</v>
       </c>
       <c r="V3" s="6">
-        <v>9884.1292513197059</v>
+        <v>9879.4196755093744</v>
       </c>
       <c r="W3" s="6">
-        <v>9426.195683718106</v>
+        <v>9421.304841206671</v>
       </c>
       <c r="X3" s="6">
-        <v>8914.9851780479348</v>
+        <v>8909.9551721896441</v>
       </c>
       <c r="Y3" s="6">
-        <v>8346.3071285450551</v>
+        <v>8341.1935084501674</v>
       </c>
       <c r="Z3" s="6">
-        <v>7715.8337303325261</v>
+        <v>7710.707733071984</v>
       </c>
       <c r="AA3" s="6">
-        <v>7019.1887153904672</v>
+        <v>7014.1396678735382</v>
       </c>
       <c r="AB3" s="6">
-        <v>6252.0743078129835</v>
+        <v>6247.2121316767334</v>
       </c>
       <c r="AC3" s="6">
-        <v>5410.4484635051695</v>
+        <v>5405.9061909128086</v>
       </c>
       <c r="AD3" s="6">
-        <v>4490.7680573279031</v>
+        <v>4486.7042162969701</v>
       </c>
       <c r="AE3" s="6">
-        <v>3490.3183821444818</v>
+        <v>3486.9190420525938</v>
       </c>
       <c r="AF3" s="6">
-        <v>2407.655491082051</v>
+        <v>2405.1356657484262</v>
       </c>
       <c r="AG3" s="6">
-        <v>1243.196036267879</v>
+        <v>1241.8000145501048</v>
       </c>
       <c r="AH3" s="6">
         <v>0</v>
@@ -783,94 +784,94 @@
         <v>2</v>
       </c>
       <c r="D4" s="6">
-        <v>13393.413622960526</v>
+        <v>13338.949252046166</v>
       </c>
       <c r="E4" s="6">
-        <v>13377.721404233422</v>
+        <v>13284.876270400009</v>
       </c>
       <c r="F4" s="6">
-        <v>13404.491953380846</v>
+        <v>13240.325311354542</v>
       </c>
       <c r="G4" s="6">
-        <v>13309.89704100203</v>
+        <v>13213.589486613329</v>
       </c>
       <c r="H4" s="6">
-        <v>13159.107767615462</v>
+        <v>12972.209981754071</v>
       </c>
       <c r="I4" s="6">
-        <v>12913.45510042995</v>
+        <v>12846.577686399947</v>
       </c>
       <c r="J4" s="6">
-        <v>12787.001668415602</v>
+        <v>12694.29966631796</v>
       </c>
       <c r="K4" s="6">
-        <v>12633.520836310374</v>
+        <v>12522.219261073662</v>
       </c>
       <c r="L4" s="6">
-        <v>12459.974454360212</v>
+        <v>12404.879992826036</v>
       </c>
       <c r="M4" s="6">
-        <v>12341.429017353199</v>
+        <v>12230.087681263713</v>
       </c>
       <c r="N4" s="6">
-        <v>12165.012888745267</v>
+        <v>12048.749716538106</v>
       </c>
       <c r="O4" s="6">
-        <v>11856.770623981132</v>
+        <v>11853.770367190045</v>
       </c>
       <c r="P4" s="6">
-        <v>11632.468296236764</v>
+        <v>11629.234380051092</v>
       </c>
       <c r="Q4" s="6">
-        <v>11375.772223921078</v>
+        <v>11372.30171905596</v>
       </c>
       <c r="R4" s="6">
-        <v>11083.688029533985</v>
+        <v>11079.98184857552</v>
       </c>
       <c r="S4" s="6">
-        <v>10753.088702007146</v>
+        <v>10749.152588178242</v>
       </c>
       <c r="T4" s="6">
-        <v>10376.662092932311</v>
+        <v>10372.509380286841</v>
       </c>
       <c r="U4" s="6">
-        <v>9954.0624917348723</v>
+        <v>9949.7128993002007</v>
       </c>
       <c r="V4" s="6">
-        <v>9482.4009292433329</v>
+        <v>9477.8827683710169</v>
       </c>
       <c r="W4" s="6">
-        <v>8958.9223869176039</v>
+        <v>8954.2739921741886</v>
       </c>
       <c r="X4" s="6">
-        <v>8381.1597999055321</v>
+        <v>8376.4309885782186</v>
       </c>
       <c r="Y4" s="6">
-        <v>7747.1424987556402</v>
+        <v>7742.39597517947</v>
       </c>
       <c r="Z4" s="6">
-        <v>7055.6750462680875</v>
+        <v>7050.9876239852229</v>
       </c>
       <c r="AA4" s="6">
-        <v>6306.7068294044793</v>
+        <v>6302.1702848338537</v>
       </c>
       <c r="AB4" s="6">
-        <v>5501.8183707760763</v>
+        <v>5497.5396612356381</v>
       </c>
       <c r="AC4" s="6">
-        <v>4644.857463626452</v>
+        <v>4640.9579331356308</v>
       </c>
       <c r="AD4" s="6">
-        <v>3742.7673386854103</v>
+        <v>3739.380387659211</v>
       </c>
       <c r="AE4" s="6">
-        <v>2806.6606974149563</v>
+        <v>2803.9271948548862</v>
       </c>
       <c r="AF4" s="6">
-        <v>1853.2083164949588</v>
+        <v>1851.2687693788191</v>
       </c>
       <c r="AG4" s="6">
-        <v>906.42998407527409</v>
+        <v>905.41212695017452</v>
       </c>
       <c r="AH4" s="6">
         <v>0</v>
